--- a/src/main/resources/word/temp_结算卡.xlsx
+++ b/src/main/resources/word/temp_结算卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="10640"/>
+    <workbookView windowWidth="18020" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>业务结算卡</t>
   </si>
@@ -163,7 +163,7 @@
     </r>
   </si>
   <si>
-    <t>{{payBank}}</t>
+    <t>{{payGoodsCost}}</t>
   </si>
   <si>
     <r>
@@ -226,6 +226,9 @@
     </r>
   </si>
   <si>
+    <t>{{payBank}}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -330,14 +333,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -404,7 +407,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -416,6 +431,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
@@ -423,32 +444,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="177"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Geneva"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -460,12 +503,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="36"/>
@@ -473,9 +510,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -487,42 +523,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Geneva"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -533,8 +535,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -565,7 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,7 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,13 +598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,19 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,19 +652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,31 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,6 +911,15 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,6 +937,21 @@
       <right/>
       <top/>
       <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -945,6 +972,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -962,30 +1004,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="62"/>
       </top>
@@ -995,178 +1013,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,7 +1210,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1215,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1236,7 +1239,7 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1263,10 +1266,10 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1300,12 +1303,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1315,10 +1318,10 @@
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="2"/>
-    <cellStyle name="常规_Sheet1" xfId="3"/>
-    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="4"/>
+    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="1"/>
+    <cellStyle name="常规_Sheet1" xfId="2"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
+    <cellStyle name="样式 1" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1677,8 +1680,8 @@
   <sheetPr/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
@@ -2236,7 +2239,7 @@
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
@@ -2286,11 +2289,11 @@
     <row r="24" ht="16" spans="1:24">
       <c r="A24" s="17"/>
       <c r="B24" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -2340,11 +2343,11 @@
     <row r="26" ht="24.75" customHeight="1" spans="1:24">
       <c r="A26" s="17"/>
       <c r="B26" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
@@ -2369,11 +2372,11 @@
     <row r="27" ht="24.75" customHeight="1" spans="1:24">
       <c r="A27" s="17"/>
       <c r="B27" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="63"/>
       <c r="F27" s="64"/>
@@ -2397,14 +2400,14 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="65"/>
       <c r="G28" s="18"/>
@@ -2477,7 +2480,7 @@
     <row r="31" spans="1:24">
       <c r="A31" s="17"/>
       <c r="B31" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="37"/>
@@ -2504,11 +2507,11 @@
     <row r="32" spans="1:24">
       <c r="A32" s="17"/>
       <c r="B32" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="21"/>
@@ -2557,17 +2560,17 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="66"/>
       <c r="G34" s="67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="75"/>
@@ -2674,13 +2677,13 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" s="72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G40" s="72"/>
       <c r="H40" s="72"/>

--- a/src/main/resources/word/temp_结算卡.xlsx
+++ b/src/main/resources/word/temp_结算卡.xlsx
@@ -325,7 +325,7 @@
     <t>主管：</t>
   </si>
   <si>
-    <t>经办人：欧阳斌</t>
+    <t>经办人：</t>
   </si>
 </sst>
 </file>
@@ -333,15 +333,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -419,7 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -431,8 +431,86 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="177"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Geneva"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -444,74 +522,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Geneva"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -525,19 +538,6 @@
     <font>
       <sz val="11"/>
       <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -568,7 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +604,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,25 +640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,18 +676,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -682,13 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,9 +935,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,6 +959,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -972,43 +1004,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,86 +1024,86 @@
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,56 +1114,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,19 +1198,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1218,11 +1218,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1239,7 +1239,7 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1263,13 +1263,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1303,25 +1303,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="1"/>
-    <cellStyle name="常规_Sheet1" xfId="2"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
-    <cellStyle name="样式 1" xfId="4"/>
+    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="2"/>
+    <cellStyle name="常规_Sheet1" xfId="3"/>
+    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1680,8 +1680,8 @@
   <sheetPr/>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>

--- a/src/main/resources/word/temp_结算卡.xlsx
+++ b/src/main/resources/word/temp_结算卡.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>业务结算卡</t>
   </si>
@@ -54,10 +54,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>{{sellingIncome}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>{{sellingIncome}}</t>
+    <t>{{sellingIncome2}}</t>
+  </si>
+  <si>
+    <t>{{sellingIncome3}}</t>
+  </si>
+  <si>
+    <t>{{sellingIncome4}}</t>
+  </si>
+  <si>
+    <t>{{sellingIncome5}}</t>
   </si>
   <si>
     <t>{{sellingIncomeRmb}}</t>
@@ -333,17 +345,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -355,12 +367,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -413,13 +419,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -431,19 +469,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -455,37 +502,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Geneva"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Geneva"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -495,26 +528,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
@@ -522,22 +535,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -562,7 +568,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,13 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +640,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,73 +688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,26 +926,6 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,6 +945,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -973,207 +1027,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1198,19 +1204,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1218,11 +1223,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1239,37 +1244,34 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1292,36 +1294,36 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="2"/>
-    <cellStyle name="常规_Sheet1" xfId="3"/>
-    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="4"/>
+    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="1"/>
+    <cellStyle name="常规_Sheet1" xfId="2"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
+    <cellStyle name="样式 1" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1678,16 +1680,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="19.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
@@ -1708,11 +1710,11 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -1741,20 +1743,20 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
     </row>
     <row r="4" ht="16" spans="1:24">
       <c r="A4" s="2"/>
@@ -1767,952 +1769,982 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="75"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="73"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:24">
       <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="76"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="F5" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="74"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:24">
       <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="76"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="74"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:24">
       <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="76"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-    </row>
-    <row r="8" ht="27.75" customHeight="1" spans="1:24">
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="74"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:24">
       <c r="A8" s="9"/>
-      <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-    </row>
-    <row r="9" ht="16" spans="1:24">
-      <c r="A9" s="2"/>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="76"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="74"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+    </row>
+    <row r="9" ht="27.75" customHeight="1" spans="1:24">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="74"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+    </row>
+    <row r="10" ht="16" spans="1:24">
       <c r="A10" s="2"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="76"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-    </row>
-    <row r="11" ht="16" spans="1:24">
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="74"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="2"/>
-      <c r="B11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="76"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="74"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+    </row>
+    <row r="12" ht="16" spans="1:24">
       <c r="A12" s="2"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="74"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="2"/>
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="76"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-    </row>
-    <row r="13" ht="16" spans="1:24">
-      <c r="A13" s="2"/>
-      <c r="B13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="76"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="54"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-    </row>
-    <row r="15" ht="16" spans="1:24">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="74"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+    </row>
+    <row r="14" ht="16" spans="1:24">
+      <c r="A14" s="2"/>
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="55"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="17"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="57"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-    </row>
-    <row r="17" ht="16" spans="1:24">
-      <c r="A17" s="17"/>
-      <c r="B17" s="25" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="26" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="74"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="54"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="52"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+    </row>
+    <row r="16" ht="16" spans="1:24">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="53"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="55"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
     </row>
     <row r="18" ht="16" spans="1:24">
-      <c r="A18" s="17"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="52"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+    </row>
+    <row r="19" ht="16" spans="1:24">
+      <c r="A19" s="16"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="57"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-    </row>
-    <row r="19" ht="23.25" customHeight="1" spans="1:24">
-      <c r="A19" s="17"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="59" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="55"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+    </row>
+    <row r="20" ht="23.25" customHeight="1" spans="1:24">
+      <c r="A20" s="16"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="57"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-    </row>
-    <row r="20" ht="16" spans="1:24">
-      <c r="A20" s="17"/>
-      <c r="B20" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="54"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="17"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="57"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-    </row>
-    <row r="22" ht="16" spans="1:24">
-      <c r="A22" s="17"/>
-      <c r="B22" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="54"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-    </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="17"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="57"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-    </row>
-    <row r="24" ht="16" spans="1:24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="55"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+    </row>
+    <row r="21" ht="16" spans="1:24">
+      <c r="A21" s="16"/>
+      <c r="B21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="54"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-    </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="17"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="57"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-    </row>
-    <row r="26" ht="24.75" customHeight="1" spans="1:24">
-      <c r="A26" s="17"/>
-      <c r="B26" s="30" t="s">
+      <c r="E21" s="59"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="52"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="55"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+    </row>
+    <row r="23" ht="16" spans="1:24">
+      <c r="A23" s="16"/>
+      <c r="B23" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="82"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="52"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="16"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="55"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+    </row>
+    <row r="25" ht="16" spans="1:24">
+      <c r="A25" s="16"/>
+      <c r="B25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="52"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="16"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="55"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
     </row>
     <row r="27" ht="24.75" customHeight="1" spans="1:24">
-      <c r="A27" s="17"/>
-      <c r="B27" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="57"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="17" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35" t="s">
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="80"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+    </row>
+    <row r="28" ht="24.75" customHeight="1" spans="1:24">
+      <c r="A28" s="16"/>
+      <c r="B28" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="54"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="55"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="17"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="57"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
+      <c r="A29" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="52"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="54"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="55"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="17"/>
-      <c r="B31" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="55"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="52"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="17"/>
-      <c r="B32" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="55"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="53"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="17"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="57"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="53"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="75"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="55"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="76"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
+      <c r="A35" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="48"/>
+      <c r="I35" s="73"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="76"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="74"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="76"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-    </row>
-    <row r="38" ht="14.75" hidden="1" spans="1:9">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="83"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="74"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="74"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+    </row>
+    <row r="39" ht="14.75" hidden="1" spans="1:9">
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="81"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="19">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="G4:I13"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A39"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:I3"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="B34:F38"/>
-    <mergeCell ref="G34:I38"/>
+    <mergeCell ref="G4:I14"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="B35:F39"/>
+    <mergeCell ref="G35:I39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>

--- a/src/main/resources/word/temp_结算卡.xlsx
+++ b/src/main/resources/word/temp_结算卡.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>业务结算卡</t>
   </si>
@@ -70,6 +70,20 @@
   </si>
   <si>
     <t>{{sellingIncome5}}</t>
+  </si>
+  <si>
+    <r>
+      <t>合计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="0"/>
+      </rPr>
+      <t>RMB</t>
+    </r>
   </si>
   <si>
     <t>{{sellingIncomeRmb}}</t>
@@ -372,12 +386,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -550,6 +558,12 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -1030,152 +1044,152 @@
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1211,11 +1225,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1223,7 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1248,24 +1262,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1294,23 +1308,23 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1683,7 +1697,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
@@ -1904,9 +1918,11 @@
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
@@ -1931,10 +1947,10 @@
     <row r="10" ht="16" spans="1:24">
       <c r="A10" s="2"/>
       <c r="B10" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33"/>
@@ -1977,10 +1993,10 @@
     <row r="12" ht="16" spans="1:24">
       <c r="A12" s="2"/>
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
@@ -2026,10 +2042,10 @@
     <row r="14" ht="16" spans="1:24">
       <c r="A14" s="2"/>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="33"/>
@@ -2051,7 +2067,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -2079,11 +2095,11 @@
     <row r="16" ht="16" spans="1:24">
       <c r="A16" s="16"/>
       <c r="B16" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="53"/>
@@ -2133,11 +2149,11 @@
     <row r="18" ht="16" spans="1:24">
       <c r="A18" s="16"/>
       <c r="B18" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57"/>
@@ -2216,11 +2232,11 @@
     <row r="21" ht="16" spans="1:24">
       <c r="A21" s="16"/>
       <c r="B21" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="57"/>
@@ -2270,11 +2286,11 @@
     <row r="23" ht="16" spans="1:24">
       <c r="A23" s="16"/>
       <c r="B23" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -2324,11 +2340,11 @@
     <row r="25" ht="16" spans="1:24">
       <c r="A25" s="16"/>
       <c r="B25" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
@@ -2378,11 +2394,11 @@
     <row r="27" ht="24.75" customHeight="1" spans="1:24">
       <c r="A27" s="16"/>
       <c r="B27" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -2407,11 +2423,11 @@
     <row r="28" ht="24.75" customHeight="1" spans="1:24">
       <c r="A28" s="16"/>
       <c r="B28" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="61"/>
       <c r="F28" s="62"/>
@@ -2435,14 +2451,14 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29" s="63"/>
       <c r="G29" s="17"/>
@@ -2515,7 +2531,7 @@
     <row r="32" spans="1:24">
       <c r="A32" s="16"/>
       <c r="B32" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="36"/>
@@ -2542,11 +2558,11 @@
     <row r="33" spans="1:24">
       <c r="A33" s="16"/>
       <c r="B33" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="20"/>
@@ -2595,17 +2611,17 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
       <c r="F35" s="64"/>
       <c r="G35" s="65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" s="48"/>
       <c r="I35" s="73"/>
@@ -2712,13 +2728,13 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41" s="70"/>
       <c r="H41" s="70"/>

--- a/src/main/resources/word/temp_结算卡.xlsx
+++ b/src/main/resources/word/temp_结算卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18020" windowHeight="10640"/>
+    <workbookView windowWidth="24720" windowHeight="10640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>业务结算卡</t>
   </si>
@@ -72,14 +72,21 @@
     <t>{{sellingIncome5}}</t>
   </si>
   <si>
+    <t>{{totalSellingIncome}}</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>合计</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>RMB</t>
@@ -359,15 +366,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -432,6 +439,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
@@ -444,9 +458,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="177"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -456,6 +472,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
@@ -463,29 +517,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Geneva"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -498,7 +545,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -510,52 +563,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Geneva"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -563,7 +570,6 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -600,7 +606,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,91 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,6 +946,24 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,6 +998,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -993,200 +1047,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1218,18 +1224,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1237,11 +1243,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1258,7 +1264,7 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1279,13 +1285,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1319,25 +1325,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="1"/>
-    <cellStyle name="常规_Sheet1" xfId="2"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
-    <cellStyle name="样式 1" xfId="4"/>
+    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="2"/>
+    <cellStyle name="常规_Sheet1" xfId="3"/>
+    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1694,10 +1700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
@@ -1913,23 +1919,19 @@
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
     </row>
-    <row r="9" ht="27.75" customHeight="1" spans="1:24">
+    <row r="9" ht="21" customHeight="1" spans="1:24">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
       <c r="I9" s="74"/>
-      <c r="K9" s="75"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="20"/>
       <c r="M9" s="75"/>
       <c r="N9" s="75"/>
@@ -1944,21 +1946,26 @@
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
     </row>
-    <row r="10" ht="16" spans="1:24">
-      <c r="A10" s="2"/>
-      <c r="B10" s="14" t="s">
+    <row r="10" ht="27.75" customHeight="1" spans="1:24">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="32"/>
       <c r="H10" s="33"/>
       <c r="I10" s="74"/>
-      <c r="K10" s="72"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
       <c r="O10" s="72"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -1970,16 +1977,22 @@
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" ht="16" spans="1:24">
       <c r="A11" s="2"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33"/>
       <c r="I11" s="74"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -1990,21 +2003,15 @@
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
     </row>
-    <row r="12" ht="16" spans="1:24">
+    <row r="12" spans="1:24">
       <c r="A12" s="2"/>
-      <c r="B12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
       <c r="I12" s="74"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
@@ -2016,18 +2023,21 @@
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" ht="16" spans="1:24">
       <c r="A13" s="2"/>
-      <c r="B13" s="10" t="s">
-        <v>6</v>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
       <c r="I13" s="74"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
@@ -2039,13 +2049,10 @@
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
     </row>
-    <row r="14" ht="16" spans="1:24">
+    <row r="14" spans="1:24">
       <c r="A14" s="2"/>
-      <c r="B14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="33"/>
@@ -2065,18 +2072,17 @@
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="16" t="s">
+    <row r="15" ht="16" spans="1:24">
+      <c r="A15" s="2"/>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="52"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="74"/>
       <c r="K15" s="78"/>
       <c r="L15" s="78"/>
       <c r="M15" s="78"/>
@@ -2092,20 +2098,18 @@
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
     </row>
-    <row r="16" ht="16" spans="1:24">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:24">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="53"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="52"/>
       <c r="K16" s="78"/>
       <c r="L16" s="78"/>
       <c r="M16" s="78"/>
@@ -2121,21 +2125,25 @@
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" ht="16" spans="1:24">
       <c r="A17" s="16"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="55"/>
+      <c r="B17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="53"/>
       <c r="K17" s="78"/>
       <c r="L17" s="78"/>
       <c r="M17" s="78"/>
       <c r="N17" s="78"/>
-      <c r="O17" s="82"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
@@ -2146,25 +2154,21 @@
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
     </row>
-    <row r="18" ht="16" spans="1:24">
+    <row r="18" spans="1:24">
       <c r="A18" s="16"/>
-      <c r="B18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="52"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="55"/>
       <c r="K18" s="78"/>
       <c r="L18" s="78"/>
       <c r="M18" s="78"/>
       <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
+      <c r="O18" s="82"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
@@ -2177,21 +2181,23 @@
     </row>
     <row r="19" ht="16" spans="1:24">
       <c r="A19" s="16"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="58"/>
+      <c r="B19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="56"/>
       <c r="F19" s="57"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="55"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="52"/>
       <c r="K19" s="78"/>
       <c r="L19" s="78"/>
       <c r="M19" s="78"/>
       <c r="N19" s="78"/>
-      <c r="O19" s="20"/>
+      <c r="O19" s="78"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
@@ -2202,22 +2208,22 @@
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
     </row>
-    <row r="20" ht="23.25" customHeight="1" spans="1:24">
+    <row r="20" ht="16" spans="1:24">
       <c r="A20" s="16"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="57" t="s">
+      <c r="C20" s="26" t="s">
         <v>6</v>
       </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
       <c r="I20" s="55"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
@@ -2229,21 +2235,19 @@
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
     </row>
-    <row r="21" ht="16" spans="1:24">
+    <row r="21" ht="23.25" customHeight="1" spans="1:24">
       <c r="A21" s="16"/>
-      <c r="B21" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="52"/>
-      <c r="K21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="55"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
@@ -2258,21 +2262,25 @@
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" ht="16" spans="1:24">
       <c r="A22" s="16"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="55"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
+      <c r="B22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="52"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
@@ -2283,25 +2291,21 @@
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
     </row>
-    <row r="23" ht="16" spans="1:24">
+    <row r="23" spans="1:24">
       <c r="A23" s="16"/>
-      <c r="B23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="52"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="55"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
@@ -2312,16 +2316,20 @@
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" ht="16" spans="1:24">
       <c r="A24" s="16"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="55"/>
+      <c r="B24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="52"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
@@ -2337,20 +2345,16 @@
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
     </row>
-    <row r="25" ht="16" spans="1:24">
+    <row r="25" spans="1:24">
       <c r="A25" s="16"/>
-      <c r="B25" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="52"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="55"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
@@ -2366,16 +2370,20 @@
       <c r="W25" s="20"/>
       <c r="X25" s="20"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" ht="16" spans="1:24">
       <c r="A26" s="16"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="55"/>
+      <c r="B26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="52"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
@@ -2391,20 +2399,16 @@
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
     </row>
-    <row r="27" ht="24.75" customHeight="1" spans="1:24">
+    <row r="27" spans="1:24">
       <c r="A27" s="16"/>
-      <c r="B27" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="80"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="55"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -2422,18 +2426,18 @@
     </row>
     <row r="28" ht="24.75" customHeight="1" spans="1:24">
       <c r="A28" s="16"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="55"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="80"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
@@ -2449,21 +2453,20 @@
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
     </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="16" t="s">
+    <row r="29" ht="24.75" customHeight="1" spans="1:24">
+      <c r="A29" s="16"/>
+      <c r="B29" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="63"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="52"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="55"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -2480,14 +2483,20 @@
       <c r="X29" s="20"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="16"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="C30" s="33"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="55"/>
+      <c r="D30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="52"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
@@ -2505,14 +2514,13 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="52"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="55"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -2530,16 +2538,14 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="16"/>
-      <c r="B32" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="53"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="52"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -2561,9 +2567,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="33"/>
-      <c r="D33" s="36" t="s">
-        <v>41</v>
-      </c>
+      <c r="D33" s="36"/>
       <c r="E33" s="36"/>
       <c r="F33" s="20"/>
       <c r="G33" s="54"/>
@@ -2586,14 +2590,18 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="16"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="55"/>
+      <c r="B34" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="53"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
@@ -2610,21 +2618,15 @@
       <c r="X34" s="20"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="73"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="55"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -2641,15 +2643,21 @@
       <c r="X35" s="20"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="74"/>
+      <c r="A36" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="48"/>
+      <c r="I36" s="73"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -2715,52 +2723,77 @@
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
     </row>
-    <row r="39" ht="14.75" hidden="1" spans="1:9">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="81"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="39" spans="1:24">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="74"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+    </row>
+    <row r="40" ht="14.75" hidden="1" spans="1:9">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="81"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="D42" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
+      <c r="F42" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:I3"/>
-    <mergeCell ref="G4:I14"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="B35:F39"/>
-    <mergeCell ref="G35:I39"/>
+    <mergeCell ref="G4:I15"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="B36:F40"/>
+    <mergeCell ref="G36:I40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>

--- a/src/main/resources/word/temp_结算卡.xlsx
+++ b/src/main/resources/word/temp_结算卡.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24720" windowHeight="10640"/>
+    <workbookView windowWidth="25600" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>业务结算卡</t>
   </si>
@@ -57,19 +57,34 @@
     <t>{{sellingIncome}}</t>
   </si>
   <si>
+    <t>{{selling_income_date}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>{{sellingIncome2}}</t>
   </si>
   <si>
+    <t>{{selling_income_date2}}</t>
+  </si>
+  <si>
     <t>{{sellingIncome3}}</t>
   </si>
   <si>
+    <t>{{selling_income_date3}}</t>
+  </si>
+  <si>
     <t>{{sellingIncome4}}</t>
   </si>
   <si>
+    <t>{{selling_income_date4}}</t>
+  </si>
+  <si>
     <t>{{sellingIncome5}}</t>
+  </si>
+  <si>
+    <t>{{selling_income_date5}}</t>
   </si>
   <si>
     <t>{{totalSellingIncome}}</t>
@@ -366,17 +381,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -428,7 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -446,14 +461,112 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Geneva"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -465,111 +578,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="177"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Geneva"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -588,7 +598,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +658,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,43 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,61 +718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,26 +954,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,6 +971,50 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,189 +1049,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1235,7 +1245,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1243,7 +1253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1264,7 +1274,7 @@
     <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1288,10 +1298,10 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1325,12 +1335,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1340,10 +1350,10 @@
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="2"/>
-    <cellStyle name="常规_Sheet1" xfId="3"/>
-    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="4"/>
+    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="1"/>
+    <cellStyle name="常规_Sheet1" xfId="2"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
+    <cellStyle name="样式 1" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1703,10 +1713,10 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="13.6"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -1778,7 +1788,7 @@
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
     </row>
-    <row r="4" ht="16" spans="1:24">
+    <row r="4" ht="14" spans="1:24">
       <c r="A4" s="2"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -1813,12 +1823,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
@@ -1841,10 +1853,12 @@
     <row r="6" ht="18.75" customHeight="1" spans="1:24">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="11"/>
       <c r="F6" s="49"/>
       <c r="G6" s="32"/>
@@ -1868,10 +1882,12 @@
     <row r="7" ht="21" customHeight="1" spans="1:24">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" s="49"/>
       <c r="G7" s="32"/>
@@ -1895,10 +1911,12 @@
     <row r="8" ht="21" customHeight="1" spans="1:24">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="49"/>
       <c r="G8" s="32"/>
@@ -1922,10 +1940,12 @@
     <row r="9" ht="21" customHeight="1" spans="1:24">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="11"/>
       <c r="F9" s="49"/>
       <c r="G9" s="32"/>
@@ -1949,13 +1969,13 @@
     <row r="10" ht="27.75" customHeight="1" spans="1:24">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
@@ -1977,13 +1997,13 @@
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
     </row>
-    <row r="11" ht="16" spans="1:24">
+    <row r="11" ht="14" spans="1:24">
       <c r="A11" s="2"/>
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33"/>
@@ -2023,13 +2043,13 @@
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
     </row>
-    <row r="13" ht="16" spans="1:24">
+    <row r="13" ht="14" spans="1:24">
       <c r="A13" s="2"/>
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33"/>
@@ -2072,13 +2092,13 @@
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
     </row>
-    <row r="15" ht="16" spans="1:24">
+    <row r="15" ht="14" spans="1:24">
       <c r="A15" s="2"/>
       <c r="B15" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33"/>
@@ -2100,7 +2120,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -2125,14 +2145,14 @@
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
     </row>
-    <row r="17" ht="16" spans="1:24">
+    <row r="17" ht="14" spans="1:24">
       <c r="A17" s="16"/>
       <c r="B17" s="19" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="53"/>
@@ -2179,14 +2199,14 @@
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
     </row>
-    <row r="19" ht="16" spans="1:24">
+    <row r="19" ht="14" spans="1:24">
       <c r="A19" s="16"/>
       <c r="B19" s="24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="57"/>
@@ -2208,7 +2228,7 @@
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
     </row>
-    <row r="20" ht="16" spans="1:24">
+    <row r="20" ht="14" spans="1:24">
       <c r="A20" s="16"/>
       <c r="B20" s="22"/>
       <c r="C20" s="26" t="s">
@@ -2262,14 +2282,14 @@
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
     </row>
-    <row r="22" ht="16" spans="1:24">
+    <row r="22" ht="14" spans="1:24">
       <c r="A22" s="16"/>
       <c r="B22" s="24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="57"/>
@@ -2316,14 +2336,14 @@
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
     </row>
-    <row r="24" ht="16" spans="1:24">
+    <row r="24" ht="14" spans="1:24">
       <c r="A24" s="16"/>
       <c r="B24" s="24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -2370,14 +2390,14 @@
       <c r="W25" s="20"/>
       <c r="X25" s="20"/>
     </row>
-    <row r="26" ht="16" spans="1:24">
+    <row r="26" ht="14" spans="1:24">
       <c r="A26" s="16"/>
       <c r="B26" s="24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -2427,11 +2447,11 @@
     <row r="28" ht="24.75" customHeight="1" spans="1:24">
       <c r="A28" s="16"/>
       <c r="B28" s="29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -2456,11 +2476,11 @@
     <row r="29" ht="24.75" customHeight="1" spans="1:24">
       <c r="A29" s="16"/>
       <c r="B29" s="31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="27" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E29" s="61"/>
       <c r="F29" s="62"/>
@@ -2484,14 +2504,14 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E30" s="63"/>
       <c r="G30" s="17"/>
@@ -2564,7 +2584,7 @@
     <row r="33" spans="1:24">
       <c r="A33" s="16"/>
       <c r="B33" s="32" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="36"/>
@@ -2591,11 +2611,11 @@
     <row r="34" spans="1:24">
       <c r="A34" s="16"/>
       <c r="B34" s="32" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="36" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="20"/>
@@ -2644,17 +2664,17 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="37" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
       <c r="F36" s="64"/>
       <c r="G36" s="65" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H36" s="48"/>
       <c r="I36" s="73"/>
@@ -2748,7 +2768,7 @@
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
     </row>
-    <row r="40" ht="14.75" hidden="1" spans="1:9">
+    <row r="40" ht="14.35" hidden="1" spans="1:9">
       <c r="A40" s="43"/>
       <c r="B40" s="44"/>
       <c r="C40" s="45"/>
@@ -2761,13 +2781,13 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G42" s="70"/>
       <c r="H42" s="70"/>
@@ -2810,7 +2830,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="13.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -2826,7 +2846,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="13.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/src/main/resources/word/temp_结算卡.xlsx
+++ b/src/main/resources/word/temp_结算卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10320"/>
+    <workbookView windowWidth="25600" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>{{sellingIncome}}</t>
   </si>
   <si>
-    <t>{{selling_income_date}}</t>
+    <t>{{sellingIncomeDate}}</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -66,25 +66,25 @@
     <t>{{sellingIncome2}}</t>
   </si>
   <si>
-    <t>{{selling_income_date2}}</t>
+    <t>{{sellingIncomeDate2}}</t>
   </si>
   <si>
     <t>{{sellingIncome3}}</t>
   </si>
   <si>
-    <t>{{selling_income_date3}}</t>
+    <t>{{sellingIncomeDate3}}</t>
   </si>
   <si>
     <t>{{sellingIncome4}}</t>
   </si>
   <si>
-    <t>{{selling_income_date4}}</t>
+    <t>{{sellingIncomeDate4}}</t>
   </si>
   <si>
     <t>{{sellingIncome5}}</t>
   </si>
   <si>
-    <t>{{selling_income_date5}}</t>
+    <t>{{sellingIncomeDate5}}</t>
   </si>
   <si>
     <t>{{totalSellingIncome}}</t>
@@ -129,7 +129,7 @@
     </r>
   </si>
   <si>
-    <t>{{dgdxIncome}}</t>
+    <t>¥{{dgdxIncome}}</t>
   </si>
   <si>
     <r>
@@ -150,7 +150,7 @@
     </r>
   </si>
   <si>
-    <t>{{taxRefund}}</t>
+    <t>¥{{taxRefund}}</t>
   </si>
   <si>
     <r>
@@ -171,7 +171,7 @@
     </r>
   </si>
   <si>
-    <t>{{factoryRefund}}</t>
+    <t>¥{{factoryRefund}}</t>
   </si>
   <si>
     <t>支出</t>
@@ -211,7 +211,7 @@
     </r>
   </si>
   <si>
-    <t>{{payGoodsCost}}</t>
+    <t>¥{{payGoodsCost}}</t>
   </si>
   <si>
     <r>
@@ -232,7 +232,7 @@
     </r>
   </si>
   <si>
-    <t>{{payOtherRefund}}</t>
+    <t>¥{{payOtherRefund}}</t>
   </si>
   <si>
     <r>
@@ -253,7 +253,7 @@
     </r>
   </si>
   <si>
-    <t>{{payInsurance}}</t>
+    <t>¥{{payInsurance}}</t>
   </si>
   <si>
     <r>
@@ -274,7 +274,7 @@
     </r>
   </si>
   <si>
-    <t>{{payBank}}</t>
+    <t>¥{{payBank}}</t>
   </si>
   <si>
     <r>
@@ -295,7 +295,7 @@
     </r>
   </si>
   <si>
-    <t>{{payIntrest}}</t>
+    <t>¥{{payIntrest}}</t>
   </si>
   <si>
     <r>
@@ -316,7 +316,7 @@
     </r>
   </si>
   <si>
-    <t>{{payTax}}</t>
+    <t>¥{{payTax}}</t>
   </si>
   <si>
     <r>
@@ -337,7 +337,7 @@
     </r>
   </si>
   <si>
-    <t>{{payOther}}</t>
+    <t>¥{{payOther}}</t>
   </si>
   <si>
     <t>利润</t>
@@ -346,7 +346,7 @@
     <t>毛利润额</t>
   </si>
   <si>
-    <t>{{grossProfit}}</t>
+    <t>¥{{grossProfit}}</t>
   </si>
   <si>
     <t>减间接费用</t>
@@ -355,7 +355,7 @@
     <t>利润净额：</t>
   </si>
   <si>
-    <t>{{netProfit}}</t>
+    <t>¥{{netProfit}}</t>
   </si>
   <si>
     <t>备注</t>
@@ -383,13 +383,13 @@
   <numFmts count="9">
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -443,13 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -466,6 +460,59 @@
       <charset val="177"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
@@ -474,27 +521,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -506,52 +546,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Geneva"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
@@ -569,6 +563,12 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Geneva"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -598,7 +598,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,13 +694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,91 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,17 +960,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,24 +1001,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="62"/>
       </top>
@@ -1019,17 +1010,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,6 +1034,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1060,152 +1060,152 @@
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,12 +1335,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1350,10 +1350,10 @@
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="1"/>
-    <cellStyle name="常规_Sheet1" xfId="2"/>
-    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="3"/>
-    <cellStyle name="样式 1" xfId="4"/>
+    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="0,0&#13;&#10;NA&#13;&#10;" xfId="2"/>
+    <cellStyle name="常规_Sheet1" xfId="3"/>
+    <cellStyle name="常规_Sheet1_1_Sheet1" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1712,8 +1712,8 @@
   <sheetPr/>
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="13.6"/>
